--- a/Code/Results/Cases/Case_0_236/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_236/res_line/pl_mw.xlsx
@@ -424,22 +424,22 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.1020668862081635</v>
+        <v>0.1935176739838909</v>
       </c>
       <c r="D2">
-        <v>0.03607568609210787</v>
+        <v>0.04871199438568219</v>
       </c>
       <c r="E2">
-        <v>0.576463858781139</v>
+        <v>0.1944525983934469</v>
       </c>
       <c r="F2">
-        <v>1.698555092246451</v>
+        <v>1.358542321422902</v>
       </c>
       <c r="G2">
-        <v>1.912698033913045</v>
+        <v>1.250350536386193</v>
       </c>
       <c r="H2">
-        <v>0.8086079233017642</v>
+        <v>1.158743620993022</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -451,10 +451,10 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>1.484246626611707</v>
+        <v>0.4227273949031201</v>
       </c>
       <c r="M2">
-        <v>35.5983238181139</v>
+        <v>11.06055852651627</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -471,22 +471,22 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.07217969012481973</v>
+        <v>0.2014595396532144</v>
       </c>
       <c r="D3">
-        <v>0.01754187991928013</v>
+        <v>0.05317889072708404</v>
       </c>
       <c r="E3">
-        <v>0.4696621139917241</v>
+        <v>0.1789926059364575</v>
       </c>
       <c r="F3">
-        <v>1.288077599051164</v>
+        <v>1.389898145656062</v>
       </c>
       <c r="G3">
-        <v>1.410663993013202</v>
+        <v>1.286256813365739</v>
       </c>
       <c r="H3">
-        <v>0.6125690883304742</v>
+        <v>1.196080125221783</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>1.226861433492331</v>
+        <v>0.3736294693242712</v>
       </c>
       <c r="M3">
-        <v>29.8506138745534</v>
+        <v>9.761280342082955</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -518,22 +518,22 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.0601140800568345</v>
+        <v>0.2067259295955353</v>
       </c>
       <c r="D4">
-        <v>0.01004759294740198</v>
+        <v>0.05611513565024318</v>
       </c>
       <c r="E4">
-        <v>0.4125794348174097</v>
+        <v>0.1696732239713086</v>
       </c>
       <c r="F4">
-        <v>1.088779811544057</v>
+        <v>1.412511119384703</v>
       </c>
       <c r="G4">
-        <v>1.168528844518036</v>
+        <v>1.312096222839585</v>
       </c>
       <c r="H4">
-        <v>0.5231232328318782</v>
+        <v>1.221353195670929</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -545,10 +545,10 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>1.08495837922564</v>
+        <v>0.3436130697067199</v>
       </c>
       <c r="M4">
-        <v>26.59544206648991</v>
+        <v>8.9617552205317</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -565,22 +565,22 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.05632071906919833</v>
+        <v>0.2089683115843286</v>
       </c>
       <c r="D5">
-        <v>0.007688015941755832</v>
+        <v>0.05735912331072868</v>
       </c>
       <c r="E5">
-        <v>0.3908103331812214</v>
+        <v>0.1659170074399015</v>
       </c>
       <c r="F5">
-        <v>1.017231122561526</v>
+        <v>1.422551678313539</v>
       </c>
       <c r="G5">
-        <v>1.081920723218715</v>
+        <v>1.323555381001469</v>
       </c>
       <c r="H5">
-        <v>0.4923595871557183</v>
+        <v>1.232231611178079</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -592,10 +592,10 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>1.029959051935975</v>
+        <v>0.3314102215073831</v>
       </c>
       <c r="M5">
-        <v>25.31712689599823</v>
+        <v>8.635439139115761</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -612,22 +612,22 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.0557488313331902</v>
+        <v>0.2093464216501673</v>
       </c>
       <c r="D6">
-        <v>0.007332025310355483</v>
+        <v>0.05756851687399411</v>
       </c>
       <c r="E6">
-        <v>0.3872717703250643</v>
+        <v>0.1652957410670197</v>
       </c>
       <c r="F6">
-        <v>1.00585514471743</v>
+        <v>1.424268209491657</v>
       </c>
       <c r="G6">
-        <v>1.068167786495891</v>
+        <v>1.325513596591705</v>
       </c>
       <c r="H6">
-        <v>0.4875487915578702</v>
+        <v>1.234072640998221</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -639,10 +639,10 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>1.020970415633343</v>
+        <v>0.3293856049238002</v>
       </c>
       <c r="M6">
-        <v>25.10731798586278</v>
+        <v>8.581222579090081</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -659,22 +659,22 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.06005883720145988</v>
+        <v>0.2067557836067948</v>
       </c>
       <c r="D7">
-        <v>0.01001324776347667</v>
+        <v>0.05613172199505811</v>
       </c>
       <c r="E7">
-        <v>0.4122804635481501</v>
+        <v>0.1696224008301215</v>
       </c>
       <c r="F7">
-        <v>1.087779463541324</v>
+        <v>1.412643212416825</v>
       </c>
       <c r="G7">
-        <v>1.167316688136424</v>
+        <v>1.312247033753252</v>
       </c>
       <c r="H7">
-        <v>0.5226874802365273</v>
+        <v>1.221497574119198</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -686,10 +686,10 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>1.084206452891351</v>
+        <v>0.3434483846195633</v>
       </c>
       <c r="M7">
-        <v>26.57802857641684</v>
+        <v>8.957356519688801</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -706,22 +706,22 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.0901064849127664</v>
+        <v>0.1961739711784958</v>
       </c>
       <c r="D8">
-        <v>0.02866255114909499</v>
+        <v>0.05021125941904181</v>
       </c>
       <c r="E8">
-        <v>0.5373840767794533</v>
+        <v>0.1890847948699488</v>
       </c>
       <c r="F8">
-        <v>1.543359387756013</v>
+        <v>1.3686445588948</v>
       </c>
       <c r="G8">
-        <v>1.72242134771551</v>
+        <v>1.261929008715029</v>
       </c>
       <c r="H8">
-        <v>0.7330134753340758</v>
+        <v>1.17112312845606</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -733,10 +733,10 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>1.391215358174207</v>
+        <v>0.4057691934945069</v>
       </c>
       <c r="M8">
-        <v>33.54402412704292</v>
+        <v>10.61289522506337</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -753,22 +753,22 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.2447155830447159</v>
+        <v>0.1786021370530761</v>
       </c>
       <c r="D9">
-        <v>0.1240464489927637</v>
+        <v>0.04019375132477876</v>
       </c>
       <c r="E9">
-        <v>0.913644114065562</v>
+        <v>0.2287247527585379</v>
       </c>
       <c r="F9">
-        <v>3.197241390099023</v>
+        <v>1.309919365102033</v>
       </c>
       <c r="G9">
-        <v>3.771525263669474</v>
+        <v>1.194470206896369</v>
       </c>
       <c r="H9">
-        <v>1.590714336052116</v>
+        <v>1.091479506175517</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -780,10 +780,10 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>2.241437558601945</v>
+        <v>0.5291945358430041</v>
       </c>
       <c r="M9">
-        <v>51.34122963345362</v>
+        <v>13.84855196463269</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -800,22 +800,22 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.2447155830447159</v>
+        <v>0.167751941886948</v>
       </c>
       <c r="D10">
-        <v>0.1240464489927637</v>
+        <v>0.03388578231292705</v>
       </c>
       <c r="E10">
-        <v>0.913644114065562</v>
+        <v>0.2589007601905848</v>
       </c>
       <c r="F10">
-        <v>3.197241390099023</v>
+        <v>1.284840420389685</v>
       </c>
       <c r="G10">
-        <v>3.771525263669474</v>
+        <v>1.16552813631165</v>
       </c>
       <c r="H10">
-        <v>1.590714336052116</v>
+        <v>1.045352585805006</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -827,10 +827,10 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>2.241437558601945</v>
+        <v>0.6209022311043952</v>
       </c>
       <c r="M10">
-        <v>51.34122963345362</v>
+        <v>16.22418808697506</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -847,22 +847,22 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.2447155830447159</v>
+        <v>0.1632915741456458</v>
       </c>
       <c r="D11">
-        <v>0.1240464489927637</v>
+        <v>0.0312631593965218</v>
       </c>
       <c r="E11">
-        <v>0.913644114065562</v>
+        <v>0.272894385318935</v>
       </c>
       <c r="F11">
-        <v>3.197241390099023</v>
+        <v>1.277641219623973</v>
       </c>
       <c r="G11">
-        <v>3.771525263669474</v>
+        <v>1.157199330807458</v>
       </c>
       <c r="H11">
-        <v>1.590714336052116</v>
+        <v>1.027220631181706</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -874,10 +874,10 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>2.241437558601945</v>
+        <v>0.6629158088938141</v>
       </c>
       <c r="M11">
-        <v>51.34122963345362</v>
+        <v>17.30581980165624</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -894,22 +894,22 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.2447155830447159</v>
+        <v>0.1616734417473396</v>
       </c>
       <c r="D12">
-        <v>0.1240464489927637</v>
+        <v>0.03030718535479338</v>
       </c>
       <c r="E12">
-        <v>0.913644114065562</v>
+        <v>0.2782350081935618</v>
       </c>
       <c r="F12">
-        <v>3.197241390099023</v>
+        <v>1.275545122965539</v>
       </c>
       <c r="G12">
-        <v>3.771525263669474</v>
+        <v>1.154772118674543</v>
       </c>
       <c r="H12">
-        <v>1.590714336052116</v>
+        <v>1.020778651753574</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -921,10 +921,10 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>2.241437558601945</v>
+        <v>0.6788739092172023</v>
       </c>
       <c r="M12">
-        <v>51.34122963345362</v>
+        <v>17.71564909554581</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -941,22 +941,22 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.2447155830447159</v>
+        <v>0.1620187396481327</v>
       </c>
       <c r="D13">
-        <v>0.1240464489927637</v>
+        <v>0.03051139177263629</v>
       </c>
       <c r="E13">
-        <v>0.913644114065562</v>
+        <v>0.2770829079749717</v>
       </c>
       <c r="F13">
-        <v>3.197241390099023</v>
+        <v>1.275968126597519</v>
       </c>
       <c r="G13">
-        <v>3.771525263669474</v>
+        <v>1.155262031495425</v>
       </c>
       <c r="H13">
-        <v>1.590714336052116</v>
+        <v>1.022146949371887</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -968,10 +968,10 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>2.241437558601945</v>
+        <v>0.6754347902802635</v>
       </c>
       <c r="M13">
-        <v>51.34122963345362</v>
+        <v>17.62737266578159</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -988,22 +988,22 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.2447155830447159</v>
+        <v>0.1631570131676909</v>
       </c>
       <c r="D14">
-        <v>0.1240464489927637</v>
+        <v>0.03118375642556614</v>
       </c>
       <c r="E14">
-        <v>0.913644114065562</v>
+        <v>0.2733329096840009</v>
       </c>
       <c r="F14">
-        <v>3.197241390099023</v>
+        <v>1.277455999248119</v>
       </c>
       <c r="G14">
-        <v>3.771525263669474</v>
+        <v>1.156984895079802</v>
       </c>
       <c r="H14">
-        <v>1.590714336052116</v>
+        <v>1.026682060985223</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1015,10 +1015,10 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>2.241437558601945</v>
+        <v>0.6642276838658461</v>
       </c>
       <c r="M14">
-        <v>51.34122963345362</v>
+        <v>17.33953129521785</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1035,22 +1035,22 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.2447155830447159</v>
+        <v>0.1638635513200626</v>
       </c>
       <c r="D15">
-        <v>0.1240464489927637</v>
+        <v>0.03160048842249985</v>
       </c>
       <c r="E15">
-        <v>0.913644114065562</v>
+        <v>0.2710414372294423</v>
       </c>
       <c r="F15">
-        <v>3.197241390099023</v>
+        <v>1.278450171970064</v>
       </c>
       <c r="G15">
-        <v>3.771525263669474</v>
+        <v>1.158135785719224</v>
       </c>
       <c r="H15">
-        <v>1.590714336052116</v>
+        <v>1.029515620880943</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1062,10 +1062,10 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>2.241437558601945</v>
+        <v>0.6573695063206344</v>
       </c>
       <c r="M15">
-        <v>51.34122963345362</v>
+        <v>17.16325445986365</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1082,22 +1082,22 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.2447155830447159</v>
+        <v>0.1680532187931334</v>
       </c>
       <c r="D16">
-        <v>0.1240464489927637</v>
+        <v>0.03406228463474115</v>
       </c>
       <c r="E16">
-        <v>0.913644114065562</v>
+        <v>0.2579918755914719</v>
       </c>
       <c r="F16">
-        <v>3.197241390099023</v>
+        <v>1.285397704718108</v>
       </c>
       <c r="G16">
-        <v>3.771525263669474</v>
+        <v>1.166172413600606</v>
       </c>
       <c r="H16">
-        <v>1.590714336052116</v>
+        <v>1.046596128056621</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1109,10 +1109,10 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>2.241437558601945</v>
+        <v>0.6181629897477308</v>
       </c>
       <c r="M16">
-        <v>51.34122963345362</v>
+        <v>16.15352851584663</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1129,22 +1129,22 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.2447155830447159</v>
+        <v>0.1707469822605248</v>
       </c>
       <c r="D17">
-        <v>0.1240464489927637</v>
+        <v>0.03563690551463594</v>
       </c>
       <c r="E17">
-        <v>0.913644114065562</v>
+        <v>0.2500568513866739</v>
       </c>
       <c r="F17">
-        <v>3.197241390099023</v>
+        <v>1.290755239418914</v>
       </c>
       <c r="G17">
-        <v>3.771525263669474</v>
+        <v>1.172363306316015</v>
       </c>
       <c r="H17">
-        <v>1.590714336052116</v>
+        <v>1.057814690562793</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1156,10 +1156,10 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>2.241437558601945</v>
+        <v>0.5941908182235522</v>
       </c>
       <c r="M17">
-        <v>51.34122963345362</v>
+        <v>15.53440663568256</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1176,22 +1176,22 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.2447155830447159</v>
+        <v>0.172340954008277</v>
       </c>
       <c r="D18">
-        <v>0.1240464489927637</v>
+        <v>0.03656572211337838</v>
       </c>
       <c r="E18">
-        <v>0.913644114065562</v>
+        <v>0.2455177035478897</v>
       </c>
       <c r="F18">
-        <v>3.197241390099023</v>
+        <v>1.294231415806038</v>
       </c>
       <c r="G18">
-        <v>3.771525263669474</v>
+        <v>1.176377498585765</v>
       </c>
       <c r="H18">
-        <v>1.590714336052116</v>
+        <v>1.064534819978661</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1203,10 +1203,10 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>2.241437558601945</v>
+        <v>0.5804300651362553</v>
       </c>
       <c r="M18">
-        <v>51.34122963345362</v>
+        <v>15.17838616527001</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1223,22 +1223,22 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.2447155830447159</v>
+        <v>0.1728882286164435</v>
       </c>
       <c r="D19">
-        <v>0.1240464489927637</v>
+        <v>0.03688412808360297</v>
       </c>
       <c r="E19">
-        <v>0.913644114065562</v>
+        <v>0.243985002566049</v>
       </c>
       <c r="F19">
-        <v>3.197241390099023</v>
+        <v>1.295475433624105</v>
       </c>
       <c r="G19">
-        <v>3.771525263669474</v>
+        <v>1.177813569576244</v>
       </c>
       <c r="H19">
-        <v>1.590714336052116</v>
+        <v>1.066855662432744</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1250,10 +1250,10 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>2.241437558601945</v>
+        <v>0.5757754421991024</v>
       </c>
       <c r="M19">
-        <v>51.34122963345362</v>
+        <v>15.05785483823837</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1270,22 +1270,22 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.2447155830447159</v>
+        <v>0.1704555936351966</v>
       </c>
       <c r="D20">
-        <v>0.1240464489927637</v>
+        <v>0.03546687819855698</v>
       </c>
       <c r="E20">
-        <v>0.913644114065562</v>
+        <v>0.2508989518314166</v>
       </c>
       <c r="F20">
-        <v>3.197241390099023</v>
+        <v>1.290143897979945</v>
       </c>
       <c r="G20">
-        <v>3.771525263669474</v>
+        <v>1.171657132942983</v>
       </c>
       <c r="H20">
-        <v>1.590714336052116</v>
+        <v>1.056592668391147</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1297,10 +1297,10 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>2.241437558601945</v>
+        <v>0.5967398183780404</v>
       </c>
       <c r="M20">
-        <v>51.34122963345362</v>
+        <v>15.60030400311939</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1317,22 +1317,22 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.2447155830447159</v>
+        <v>0.1628207291210231</v>
       </c>
       <c r="D21">
-        <v>0.1240464489927637</v>
+        <v>0.03098524465162811</v>
       </c>
       <c r="E21">
-        <v>0.913644114065562</v>
+        <v>0.274433220749529</v>
       </c>
       <c r="F21">
-        <v>3.197241390099023</v>
+        <v>1.277001672271496</v>
       </c>
       <c r="G21">
-        <v>3.771525263669474</v>
+        <v>1.15645887065449</v>
       </c>
       <c r="H21">
-        <v>1.590714336052116</v>
+        <v>1.025338360437502</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1344,10 +1344,10 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>2.241437558601945</v>
+        <v>0.6675181169714222</v>
       </c>
       <c r="M21">
-        <v>51.34122963345362</v>
+        <v>17.42406993578385</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1364,22 +1364,22 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.2447155830447159</v>
+        <v>0.1582455175247048</v>
       </c>
       <c r="D22">
-        <v>0.1240464489927637</v>
+        <v>0.02827363851491249</v>
       </c>
       <c r="E22">
-        <v>0.913644114065562</v>
+        <v>0.2900580283799741</v>
       </c>
       <c r="F22">
-        <v>3.197241390099023</v>
+        <v>1.272097296536316</v>
       </c>
       <c r="G22">
-        <v>3.771525263669474</v>
+        <v>1.150777206747335</v>
       </c>
       <c r="H22">
-        <v>1.590714336052116</v>
+        <v>1.007391398627163</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1391,10 +1391,10 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>2.241437558601945</v>
+        <v>0.7140614817488711</v>
       </c>
       <c r="M22">
-        <v>51.34122963345362</v>
+        <v>18.61745266273306</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1411,22 +1411,22 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.2447155830447159</v>
+        <v>0.160648578846633</v>
       </c>
       <c r="D23">
-        <v>0.1240464489927637</v>
+        <v>0.02970041469867191</v>
       </c>
       <c r="E23">
-        <v>0.913644114065562</v>
+        <v>0.2816953365870347</v>
       </c>
       <c r="F23">
-        <v>3.197241390099023</v>
+        <v>1.274369245067589</v>
       </c>
       <c r="G23">
-        <v>3.771525263669474</v>
+        <v>1.153410002902262</v>
       </c>
       <c r="H23">
-        <v>1.590714336052116</v>
+        <v>1.016738323415666</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1438,10 +1438,10 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>2.241437558601945</v>
+        <v>0.6891921640671796</v>
       </c>
       <c r="M23">
-        <v>51.34122963345362</v>
+        <v>17.98035313733965</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1458,22 +1458,22 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.2447155830447159</v>
+        <v>0.170587189551668</v>
       </c>
       <c r="D24">
-        <v>0.1240464489927637</v>
+        <v>0.03554367433165595</v>
       </c>
       <c r="E24">
-        <v>0.913644114065562</v>
+        <v>0.2505181674348194</v>
       </c>
       <c r="F24">
-        <v>3.197241390099023</v>
+        <v>1.290419053675421</v>
       </c>
       <c r="G24">
-        <v>3.771525263669474</v>
+        <v>1.171974979151599</v>
       </c>
       <c r="H24">
-        <v>1.590714336052116</v>
+        <v>1.057144303356012</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1485,10 +1485,10 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>2.241437558601945</v>
+        <v>0.5955873499243296</v>
       </c>
       <c r="M24">
-        <v>51.34122963345362</v>
+        <v>15.57051205723968</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1505,22 +1505,22 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.2447155830447159</v>
+        <v>0.1830032582127217</v>
       </c>
       <c r="D25">
-        <v>0.1240464489927637</v>
+        <v>0.04272510823557951</v>
       </c>
       <c r="E25">
-        <v>0.913644114065562</v>
+        <v>0.2178280883137234</v>
       </c>
       <c r="F25">
-        <v>3.197241390099023</v>
+        <v>1.32272764737742</v>
       </c>
       <c r="G25">
-        <v>3.771525263669474</v>
+        <v>1.209216817011537</v>
       </c>
       <c r="H25">
-        <v>1.590714336052116</v>
+        <v>1.110903309883639</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1532,10 +1532,10 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>2.241437558601945</v>
+        <v>0.4956465347643189</v>
       </c>
       <c r="M25">
-        <v>51.34122963345362</v>
+        <v>12.97389157519621</v>
       </c>
       <c r="N25">
         <v>0</v>

--- a/Code/Results/Cases/Case_0_236/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_236/res_line/pl_mw.xlsx
@@ -424,22 +424,22 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.1935176739838909</v>
+        <v>0.1020668862082559</v>
       </c>
       <c r="D2">
-        <v>0.04871199438568219</v>
+        <v>0.03607568609220424</v>
       </c>
       <c r="E2">
-        <v>0.1944525983934469</v>
+        <v>0.5764638587811461</v>
       </c>
       <c r="F2">
-        <v>1.358542321422902</v>
+        <v>1.698555092246494</v>
       </c>
       <c r="G2">
-        <v>1.250350536386193</v>
+        <v>1.912698033913074</v>
       </c>
       <c r="H2">
-        <v>1.158743620993022</v>
+        <v>0.8086079233017927</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -451,10 +451,10 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.4227273949031201</v>
+        <v>1.484246626611707</v>
       </c>
       <c r="M2">
-        <v>11.06055852651627</v>
+        <v>35.5983238181139</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -471,22 +471,22 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.2014595396532144</v>
+        <v>0.07217969012479841</v>
       </c>
       <c r="D3">
-        <v>0.05317889072708404</v>
+        <v>0.01754187991955325</v>
       </c>
       <c r="E3">
-        <v>0.1789926059364575</v>
+        <v>0.4696621139917241</v>
       </c>
       <c r="F3">
-        <v>1.389898145656062</v>
+        <v>1.288077599051149</v>
       </c>
       <c r="G3">
-        <v>1.286256813365739</v>
+        <v>1.410663993013088</v>
       </c>
       <c r="H3">
-        <v>1.196080125221783</v>
+        <v>0.6125690883303321</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.3736294693242712</v>
+        <v>1.226861433492445</v>
       </c>
       <c r="M3">
-        <v>9.761280342082955</v>
+        <v>29.85061387455323</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -518,22 +518,22 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.2067259295955353</v>
+        <v>0.06011408005694108</v>
       </c>
       <c r="D4">
-        <v>0.05611513565024318</v>
+        <v>0.01004759294743041</v>
       </c>
       <c r="E4">
-        <v>0.1696732239713086</v>
+        <v>0.412579434817431</v>
       </c>
       <c r="F4">
-        <v>1.412511119384703</v>
+        <v>1.088779811544072</v>
       </c>
       <c r="G4">
-        <v>1.312096222839585</v>
+        <v>1.168528844517994</v>
       </c>
       <c r="H4">
-        <v>1.221353195670929</v>
+        <v>0.5231232328318782</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -545,10 +545,10 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.3436130697067199</v>
+        <v>1.084958379225668</v>
       </c>
       <c r="M4">
-        <v>8.9617552205317</v>
+        <v>26.59544206648985</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -565,22 +565,22 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.2089683115843286</v>
+        <v>0.05632071906934044</v>
       </c>
       <c r="D5">
-        <v>0.05735912331072868</v>
+        <v>0.007688015941980986</v>
       </c>
       <c r="E5">
-        <v>0.1659170074399015</v>
+        <v>0.3908103331812143</v>
       </c>
       <c r="F5">
-        <v>1.422551678313539</v>
+        <v>1.017231122561526</v>
       </c>
       <c r="G5">
-        <v>1.323555381001469</v>
+        <v>1.081920723218701</v>
       </c>
       <c r="H5">
-        <v>1.232231611178079</v>
+        <v>0.4923595871557467</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -592,10 +592,10 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.3314102215073831</v>
+        <v>1.029959051936004</v>
       </c>
       <c r="M5">
-        <v>8.635439139115761</v>
+        <v>25.3171268959984</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -612,22 +612,22 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.2093464216501673</v>
+        <v>0.05574883133314756</v>
       </c>
       <c r="D6">
-        <v>0.05756851687399411</v>
+        <v>0.007332025310234691</v>
       </c>
       <c r="E6">
-        <v>0.1652957410670197</v>
+        <v>0.3872717703251425</v>
       </c>
       <c r="F6">
-        <v>1.424268209491657</v>
+        <v>1.005855144717415</v>
       </c>
       <c r="G6">
-        <v>1.325513596591705</v>
+        <v>1.06816778649592</v>
       </c>
       <c r="H6">
-        <v>1.234072640998221</v>
+        <v>0.4875487915577565</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -639,10 +639,10 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.3293856049238002</v>
+        <v>1.020970415633428</v>
       </c>
       <c r="M6">
-        <v>8.581222579090081</v>
+        <v>25.10731798586266</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -659,22 +659,22 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.2067557836067948</v>
+        <v>0.06005883720143856</v>
       </c>
       <c r="D7">
-        <v>0.05613172199505811</v>
+        <v>0.01001324776365076</v>
       </c>
       <c r="E7">
-        <v>0.1696224008301215</v>
+        <v>0.4122804635481501</v>
       </c>
       <c r="F7">
-        <v>1.412643212416825</v>
+        <v>1.087779463541324</v>
       </c>
       <c r="G7">
-        <v>1.312247033753252</v>
+        <v>1.167316688136395</v>
       </c>
       <c r="H7">
-        <v>1.221497574119198</v>
+        <v>0.5226874802366552</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -686,10 +686,10 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.3434483846195633</v>
+        <v>1.084206452891351</v>
       </c>
       <c r="M7">
-        <v>8.957356519688801</v>
+        <v>26.57802857641673</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -706,22 +706,22 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.1961739711784958</v>
+        <v>0.0901064849127664</v>
       </c>
       <c r="D8">
-        <v>0.05021125941904181</v>
+        <v>0.02866255114902794</v>
       </c>
       <c r="E8">
-        <v>0.1890847948699488</v>
+        <v>0.5373840767794817</v>
       </c>
       <c r="F8">
-        <v>1.3686445588948</v>
+        <v>1.543359387755984</v>
       </c>
       <c r="G8">
-        <v>1.261929008715029</v>
+        <v>1.722421347715482</v>
       </c>
       <c r="H8">
-        <v>1.17112312845606</v>
+        <v>0.7330134753340474</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -733,10 +733,10 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.4057691934945069</v>
+        <v>1.39121535817435</v>
       </c>
       <c r="M8">
-        <v>10.61289522506337</v>
+        <v>33.54402412704303</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -753,22 +753,22 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.1786021370530761</v>
+        <v>0.2447155830447727</v>
       </c>
       <c r="D9">
-        <v>0.04019375132477876</v>
+        <v>0.1240464489930142</v>
       </c>
       <c r="E9">
-        <v>0.2287247527585379</v>
+        <v>0.9136441140655549</v>
       </c>
       <c r="F9">
-        <v>1.309919365102033</v>
+        <v>3.197241390099038</v>
       </c>
       <c r="G9">
-        <v>1.194470206896369</v>
+        <v>3.77152526366956</v>
       </c>
       <c r="H9">
-        <v>1.091479506175517</v>
+        <v>1.590714336052002</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -780,10 +780,10 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0.5291945358430041</v>
+        <v>2.241437558601945</v>
       </c>
       <c r="M9">
-        <v>13.84855196463269</v>
+        <v>51.34122963345374</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -800,22 +800,22 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.167751941886948</v>
+        <v>0.2447155830447727</v>
       </c>
       <c r="D10">
-        <v>0.03388578231292705</v>
+        <v>0.1240464489930142</v>
       </c>
       <c r="E10">
-        <v>0.2589007601905848</v>
+        <v>0.9136441140655549</v>
       </c>
       <c r="F10">
-        <v>1.284840420389685</v>
+        <v>3.197241390099038</v>
       </c>
       <c r="G10">
-        <v>1.16552813631165</v>
+        <v>3.77152526366956</v>
       </c>
       <c r="H10">
-        <v>1.045352585805006</v>
+        <v>1.590714336052002</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -827,10 +827,10 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0.6209022311043952</v>
+        <v>2.241437558601945</v>
       </c>
       <c r="M10">
-        <v>16.22418808697506</v>
+        <v>51.34122963345374</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -847,22 +847,22 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.1632915741456458</v>
+        <v>0.2447155830447727</v>
       </c>
       <c r="D11">
-        <v>0.0312631593965218</v>
+        <v>0.1240464489930142</v>
       </c>
       <c r="E11">
-        <v>0.272894385318935</v>
+        <v>0.9136441140655549</v>
       </c>
       <c r="F11">
-        <v>1.277641219623973</v>
+        <v>3.197241390099038</v>
       </c>
       <c r="G11">
-        <v>1.157199330807458</v>
+        <v>3.77152526366956</v>
       </c>
       <c r="H11">
-        <v>1.027220631181706</v>
+        <v>1.590714336052002</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -874,10 +874,10 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0.6629158088938141</v>
+        <v>2.241437558601945</v>
       </c>
       <c r="M11">
-        <v>17.30581980165624</v>
+        <v>51.34122963345374</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -894,22 +894,22 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.1616734417473396</v>
+        <v>0.2447155830447727</v>
       </c>
       <c r="D12">
-        <v>0.03030718535479338</v>
+        <v>0.1240464489930142</v>
       </c>
       <c r="E12">
-        <v>0.2782350081935618</v>
+        <v>0.9136441140655549</v>
       </c>
       <c r="F12">
-        <v>1.275545122965539</v>
+        <v>3.197241390099038</v>
       </c>
       <c r="G12">
-        <v>1.154772118674543</v>
+        <v>3.77152526366956</v>
       </c>
       <c r="H12">
-        <v>1.020778651753574</v>
+        <v>1.590714336052002</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -921,10 +921,10 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.6788739092172023</v>
+        <v>2.241437558601945</v>
       </c>
       <c r="M12">
-        <v>17.71564909554581</v>
+        <v>51.34122963345374</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -941,22 +941,22 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.1620187396481327</v>
+        <v>0.2447155830447727</v>
       </c>
       <c r="D13">
-        <v>0.03051139177263629</v>
+        <v>0.1240464489930142</v>
       </c>
       <c r="E13">
-        <v>0.2770829079749717</v>
+        <v>0.9136441140655549</v>
       </c>
       <c r="F13">
-        <v>1.275968126597519</v>
+        <v>3.197241390099038</v>
       </c>
       <c r="G13">
-        <v>1.155262031495425</v>
+        <v>3.77152526366956</v>
       </c>
       <c r="H13">
-        <v>1.022146949371887</v>
+        <v>1.590714336052002</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -968,10 +968,10 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0.6754347902802635</v>
+        <v>2.241437558601945</v>
       </c>
       <c r="M13">
-        <v>17.62737266578159</v>
+        <v>51.34122963345374</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -988,22 +988,22 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.1631570131676909</v>
+        <v>0.2447155830447727</v>
       </c>
       <c r="D14">
-        <v>0.03118375642556614</v>
+        <v>0.1240464489930142</v>
       </c>
       <c r="E14">
-        <v>0.2733329096840009</v>
+        <v>0.9136441140655549</v>
       </c>
       <c r="F14">
-        <v>1.277455999248119</v>
+        <v>3.197241390099038</v>
       </c>
       <c r="G14">
-        <v>1.156984895079802</v>
+        <v>3.77152526366956</v>
       </c>
       <c r="H14">
-        <v>1.026682060985223</v>
+        <v>1.590714336052002</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1015,10 +1015,10 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0.6642276838658461</v>
+        <v>2.241437558601945</v>
       </c>
       <c r="M14">
-        <v>17.33953129521785</v>
+        <v>51.34122963345374</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1035,22 +1035,22 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.1638635513200626</v>
+        <v>0.2447155830447727</v>
       </c>
       <c r="D15">
-        <v>0.03160048842249985</v>
+        <v>0.1240464489930142</v>
       </c>
       <c r="E15">
-        <v>0.2710414372294423</v>
+        <v>0.9136441140655549</v>
       </c>
       <c r="F15">
-        <v>1.278450171970064</v>
+        <v>3.197241390099038</v>
       </c>
       <c r="G15">
-        <v>1.158135785719224</v>
+        <v>3.77152526366956</v>
       </c>
       <c r="H15">
-        <v>1.029515620880943</v>
+        <v>1.590714336052002</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1062,10 +1062,10 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0.6573695063206344</v>
+        <v>2.241437558601945</v>
       </c>
       <c r="M15">
-        <v>17.16325445986365</v>
+        <v>51.34122963345374</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1082,22 +1082,22 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.1680532187931334</v>
+        <v>0.2447155830447727</v>
       </c>
       <c r="D16">
-        <v>0.03406228463474115</v>
+        <v>0.1240464489930142</v>
       </c>
       <c r="E16">
-        <v>0.2579918755914719</v>
+        <v>0.9136441140655549</v>
       </c>
       <c r="F16">
-        <v>1.285397704718108</v>
+        <v>3.197241390099038</v>
       </c>
       <c r="G16">
-        <v>1.166172413600606</v>
+        <v>3.77152526366956</v>
       </c>
       <c r="H16">
-        <v>1.046596128056621</v>
+        <v>1.590714336052002</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1109,10 +1109,10 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0.6181629897477308</v>
+        <v>2.241437558601945</v>
       </c>
       <c r="M16">
-        <v>16.15352851584663</v>
+        <v>51.34122963345374</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1129,22 +1129,22 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.1707469822605248</v>
+        <v>0.2447155830447727</v>
       </c>
       <c r="D17">
-        <v>0.03563690551463594</v>
+        <v>0.1240464489930142</v>
       </c>
       <c r="E17">
-        <v>0.2500568513866739</v>
+        <v>0.9136441140655549</v>
       </c>
       <c r="F17">
-        <v>1.290755239418914</v>
+        <v>3.197241390099038</v>
       </c>
       <c r="G17">
-        <v>1.172363306316015</v>
+        <v>3.77152526366956</v>
       </c>
       <c r="H17">
-        <v>1.057814690562793</v>
+        <v>1.590714336052002</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1156,10 +1156,10 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0.5941908182235522</v>
+        <v>2.241437558601945</v>
       </c>
       <c r="M17">
-        <v>15.53440663568256</v>
+        <v>51.34122963345374</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1176,22 +1176,22 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.172340954008277</v>
+        <v>0.2447155830447727</v>
       </c>
       <c r="D18">
-        <v>0.03656572211337838</v>
+        <v>0.1240464489930142</v>
       </c>
       <c r="E18">
-        <v>0.2455177035478897</v>
+        <v>0.9136441140655549</v>
       </c>
       <c r="F18">
-        <v>1.294231415806038</v>
+        <v>3.197241390099038</v>
       </c>
       <c r="G18">
-        <v>1.176377498585765</v>
+        <v>3.77152526366956</v>
       </c>
       <c r="H18">
-        <v>1.064534819978661</v>
+        <v>1.590714336052002</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1203,10 +1203,10 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0.5804300651362553</v>
+        <v>2.241437558601945</v>
       </c>
       <c r="M18">
-        <v>15.17838616527001</v>
+        <v>51.34122963345374</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1223,22 +1223,22 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.1728882286164435</v>
+        <v>0.2447155830447727</v>
       </c>
       <c r="D19">
-        <v>0.03688412808360297</v>
+        <v>0.1240464489930142</v>
       </c>
       <c r="E19">
-        <v>0.243985002566049</v>
+        <v>0.9136441140655549</v>
       </c>
       <c r="F19">
-        <v>1.295475433624105</v>
+        <v>3.197241390099038</v>
       </c>
       <c r="G19">
-        <v>1.177813569576244</v>
+        <v>3.77152526366956</v>
       </c>
       <c r="H19">
-        <v>1.066855662432744</v>
+        <v>1.590714336052002</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1250,10 +1250,10 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0.5757754421991024</v>
+        <v>2.241437558601945</v>
       </c>
       <c r="M19">
-        <v>15.05785483823837</v>
+        <v>51.34122963345374</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1270,22 +1270,22 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.1704555936351966</v>
+        <v>0.2447155830447727</v>
       </c>
       <c r="D20">
-        <v>0.03546687819855698</v>
+        <v>0.1240464489930142</v>
       </c>
       <c r="E20">
-        <v>0.2508989518314166</v>
+        <v>0.9136441140655549</v>
       </c>
       <c r="F20">
-        <v>1.290143897979945</v>
+        <v>3.197241390099038</v>
       </c>
       <c r="G20">
-        <v>1.171657132942983</v>
+        <v>3.77152526366956</v>
       </c>
       <c r="H20">
-        <v>1.056592668391147</v>
+        <v>1.590714336052002</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1297,10 +1297,10 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0.5967398183780404</v>
+        <v>2.241437558601945</v>
       </c>
       <c r="M20">
-        <v>15.60030400311939</v>
+        <v>51.34122963345374</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1317,22 +1317,22 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.1628207291210231</v>
+        <v>0.2447155830447727</v>
       </c>
       <c r="D21">
-        <v>0.03098524465162811</v>
+        <v>0.1240464489930142</v>
       </c>
       <c r="E21">
-        <v>0.274433220749529</v>
+        <v>0.9136441140655549</v>
       </c>
       <c r="F21">
-        <v>1.277001672271496</v>
+        <v>3.197241390099038</v>
       </c>
       <c r="G21">
-        <v>1.15645887065449</v>
+        <v>3.77152526366956</v>
       </c>
       <c r="H21">
-        <v>1.025338360437502</v>
+        <v>1.590714336052002</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1344,10 +1344,10 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0.6675181169714222</v>
+        <v>2.241437558601945</v>
       </c>
       <c r="M21">
-        <v>17.42406993578385</v>
+        <v>51.34122963345374</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1364,22 +1364,22 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.1582455175247048</v>
+        <v>0.2447155830447727</v>
       </c>
       <c r="D22">
-        <v>0.02827363851491249</v>
+        <v>0.1240464489930142</v>
       </c>
       <c r="E22">
-        <v>0.2900580283799741</v>
+        <v>0.9136441140655549</v>
       </c>
       <c r="F22">
-        <v>1.272097296536316</v>
+        <v>3.197241390099038</v>
       </c>
       <c r="G22">
-        <v>1.150777206747335</v>
+        <v>3.77152526366956</v>
       </c>
       <c r="H22">
-        <v>1.007391398627163</v>
+        <v>1.590714336052002</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1391,10 +1391,10 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0.7140614817488711</v>
+        <v>2.241437558601945</v>
       </c>
       <c r="M22">
-        <v>18.61745266273306</v>
+        <v>51.34122963345374</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1411,22 +1411,22 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.160648578846633</v>
+        <v>0.2447155830447727</v>
       </c>
       <c r="D23">
-        <v>0.02970041469867191</v>
+        <v>0.1240464489930142</v>
       </c>
       <c r="E23">
-        <v>0.2816953365870347</v>
+        <v>0.9136441140655549</v>
       </c>
       <c r="F23">
-        <v>1.274369245067589</v>
+        <v>3.197241390099038</v>
       </c>
       <c r="G23">
-        <v>1.153410002902262</v>
+        <v>3.77152526366956</v>
       </c>
       <c r="H23">
-        <v>1.016738323415666</v>
+        <v>1.590714336052002</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1438,10 +1438,10 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0.6891921640671796</v>
+        <v>2.241437558601945</v>
       </c>
       <c r="M23">
-        <v>17.98035313733965</v>
+        <v>51.34122963345374</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1458,22 +1458,22 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.170587189551668</v>
+        <v>0.2447155830447727</v>
       </c>
       <c r="D24">
-        <v>0.03554367433165595</v>
+        <v>0.1240464489930142</v>
       </c>
       <c r="E24">
-        <v>0.2505181674348194</v>
+        <v>0.9136441140655549</v>
       </c>
       <c r="F24">
-        <v>1.290419053675421</v>
+        <v>3.197241390099038</v>
       </c>
       <c r="G24">
-        <v>1.171974979151599</v>
+        <v>3.77152526366956</v>
       </c>
       <c r="H24">
-        <v>1.057144303356012</v>
+        <v>1.590714336052002</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1485,10 +1485,10 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0.5955873499243296</v>
+        <v>2.241437558601945</v>
       </c>
       <c r="M24">
-        <v>15.57051205723968</v>
+        <v>51.34122963345374</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1505,22 +1505,22 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.1830032582127217</v>
+        <v>0.2447155830447727</v>
       </c>
       <c r="D25">
-        <v>0.04272510823557951</v>
+        <v>0.1240464489930142</v>
       </c>
       <c r="E25">
-        <v>0.2178280883137234</v>
+        <v>0.9136441140655549</v>
       </c>
       <c r="F25">
-        <v>1.32272764737742</v>
+        <v>3.197241390099038</v>
       </c>
       <c r="G25">
-        <v>1.209216817011537</v>
+        <v>3.77152526366956</v>
       </c>
       <c r="H25">
-        <v>1.110903309883639</v>
+        <v>1.590714336052002</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1532,10 +1532,10 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0.4956465347643189</v>
+        <v>2.241437558601945</v>
       </c>
       <c r="M25">
-        <v>12.97389157519621</v>
+        <v>51.34122963345374</v>
       </c>
       <c r="N25">
         <v>0</v>
